--- a/poc-professionnel/ig/StructureDefinition-NiveauConfidentialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-NiveauConfidentialite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:57:47+00:00</t>
+    <t>2025-07-16T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/NiveauConfidentialite-vs</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -679,7 +685,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.37109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -1280,13 +1286,11 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -1316,7 +1320,7 @@
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>99</v>

--- a/poc-professionnel/ig/StructureDefinition-NiveauConfidentialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-NiveauConfidentialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-NiveauConfidentialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-NiveauConfidentialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-NiveauConfidentialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-NiveauConfidentialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:52:06+00:00</t>
+    <t>2025-07-17T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-NiveauConfidentialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-NiveauConfidentialite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:35:50+00:00</t>
+    <t>2025-07-18T06:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,7 +250,10 @@
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -261,6 +264,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -290,6 +296,9 @@
 </t>
   </si>
   <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -317,9 +326,6 @@
   </si>
   <si>
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -842,10 +848,10 @@
         <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -905,21 +911,21 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -930,7 +936,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -942,13 +948,13 @@
         <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -999,13 +1005,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1014,15 +1020,15 @@
         <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1045,13 +1051,13 @@
         <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1090,19 +1096,19 @@
         <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1114,7 +1120,7 @@
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1122,10 +1128,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1133,10 +1139,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1148,16 +1154,16 @@
         <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1207,30 +1213,30 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1241,7 +1247,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1253,13 +1259,13 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1286,11 +1292,11 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -1308,22 +1314,22 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
